--- a/code/author_keywords_word_count.xlsx
+++ b/code/author_keywords_word_count.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">rank</t>
   </si>
@@ -327,306 +327,6 @@
   </si>
   <si>
     <t xml:space="preserve">tsunami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economic crisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co-management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coastal communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sustainable development goals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remittances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethnography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coping strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">political ecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">informal settlements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preparedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indigenous knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban sustainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economic development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wellbeing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decision-making</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">democracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collective action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corporate social responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">governmentality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood risk management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social–ecological systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fishing communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crisis management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">community engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social-ecological resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economic resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pacific islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civil society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">austerity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate variability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disaster risk reduction (drr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">violence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixed methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indigenous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resilience measurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rural development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resettlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stewardship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban vulnerability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urbanisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disaster risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban poor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sustainable cities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well-being</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citizenship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquaculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">european union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sustainable tourism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban floods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban poverty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban flood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post-disaster recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social cohesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unemployment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inclusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stakeholder engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatial planning</t>
   </si>
 </sst>
 </file>
@@ -986,7 +686,7 @@
         <v>193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -1003,7 +703,7 @@
         <v>176</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E3" t="n">
         <v>1.1</v>
@@ -1020,7 +720,7 @@
         <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E4" t="n">
         <v>1.72</v>
@@ -1037,7 +737,7 @@
         <v>110</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E5" t="n">
         <v>1.75</v>
@@ -1071,7 +771,7 @@
         <v>85</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="n">
         <v>2.27</v>
@@ -1088,7 +788,7 @@
         <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E8" t="n">
         <v>2.33</v>
@@ -1224,7 +924,7 @@
         <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E16" t="n">
         <v>3.71</v>
@@ -1734,7 +1434,7 @@
         <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E46" t="n">
         <v>11.35</v>
@@ -1751,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E47" t="n">
         <v>11.35</v>
@@ -1768,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E48" t="n">
         <v>11.35</v>
@@ -1785,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E49" t="n">
         <v>11.35</v>
@@ -1802,7 +1502,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E50" t="n">
         <v>12.06</v>
@@ -1819,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E51" t="n">
         <v>12.06</v>
@@ -1836,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E52" t="n">
         <v>12.06</v>
@@ -1853,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E53" t="n">
         <v>12.06</v>
@@ -1870,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E54" t="n">
         <v>12.06</v>
@@ -1887,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E55" t="n">
         <v>12.06</v>
@@ -1904,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E56" t="n">
         <v>12.06</v>
@@ -1921,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E57" t="n">
         <v>12.06</v>
@@ -1938,7 +1638,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E58" t="n">
         <v>12.87</v>
@@ -1955,7 +1655,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E59" t="n">
         <v>12.87</v>
@@ -1972,7 +1672,7 @@
         <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E60" t="n">
         <v>13.79</v>
@@ -1989,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E61" t="n">
         <v>13.79</v>
@@ -2006,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E62" t="n">
         <v>13.79</v>
@@ -2023,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E63" t="n">
         <v>13.79</v>
@@ -2673,1706 +2373,6 @@
       </c>
       <c r="E101" t="n">
         <v>19.3</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" t="n">
-        <v>10</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" t="n">
-        <v>10</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" t="n">
-        <v>9</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" t="n">
-        <v>9</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" t="n">
-        <v>9</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" t="n">
-        <v>9</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" t="n">
-        <v>9</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>119</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" t="n">
-        <v>8</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" t="n">
-        <v>8</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-      <c r="C122" t="n">
-        <v>8</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" t="n">
-        <v>8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" t="n">
-        <v>8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" t="n">
-        <v>8</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>129</v>
-      </c>
-      <c r="C126" t="n">
-        <v>8</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>130</v>
-      </c>
-      <c r="C127" t="n">
-        <v>8</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>131</v>
-      </c>
-      <c r="C128" t="n">
-        <v>8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>132</v>
-      </c>
-      <c r="C129" t="n">
-        <v>8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" t="n">
-        <v>8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>134</v>
-      </c>
-      <c r="C131" t="n">
-        <v>8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>135</v>
-      </c>
-      <c r="C132" t="n">
-        <v>8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C133" t="n">
-        <v>8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134" t="n">
-        <v>8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>138</v>
-      </c>
-      <c r="C135" t="n">
-        <v>8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>139</v>
-      </c>
-      <c r="C136" t="n">
-        <v>8</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>140</v>
-      </c>
-      <c r="C137" t="n">
-        <v>8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>141</v>
-      </c>
-      <c r="C138" t="n">
-        <v>8</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>142</v>
-      </c>
-      <c r="C139" t="n">
-        <v>8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>143</v>
-      </c>
-      <c r="C140" t="n">
-        <v>8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141" t="n">
-        <v>8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" t="n">
-        <v>8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>146</v>
-      </c>
-      <c r="C143" t="n">
-        <v>8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>147</v>
-      </c>
-      <c r="C144" t="n">
-        <v>8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>148</v>
-      </c>
-      <c r="C145" t="n">
-        <v>8</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" t="n">
-        <v>8</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>150</v>
-      </c>
-      <c r="C147" t="n">
-        <v>8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>151</v>
-      </c>
-      <c r="C148" t="n">
-        <v>8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>152</v>
-      </c>
-      <c r="C149" t="n">
-        <v>7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>153</v>
-      </c>
-      <c r="C150" t="n">
-        <v>7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>154</v>
-      </c>
-      <c r="C151" t="n">
-        <v>7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>155</v>
-      </c>
-      <c r="C152" t="n">
-        <v>7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" t="n">
-        <v>7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" t="n">
-        <v>7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>158</v>
-      </c>
-      <c r="C155" t="n">
-        <v>7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>159</v>
-      </c>
-      <c r="C156" t="n">
-        <v>7</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>160</v>
-      </c>
-      <c r="C157" t="n">
-        <v>7</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>161</v>
-      </c>
-      <c r="C158" t="n">
-        <v>7</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>162</v>
-      </c>
-      <c r="C159" t="n">
-        <v>7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" t="n">
-        <v>7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" t="n">
-        <v>7</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>165</v>
-      </c>
-      <c r="C162" t="n">
-        <v>7</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>166</v>
-      </c>
-      <c r="C163" t="n">
-        <v>7</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>167</v>
-      </c>
-      <c r="C164" t="n">
-        <v>7</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>168</v>
-      </c>
-      <c r="C165" t="n">
-        <v>7</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>169</v>
-      </c>
-      <c r="C166" t="n">
-        <v>7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>170</v>
-      </c>
-      <c r="C167" t="n">
-        <v>7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>171</v>
-      </c>
-      <c r="C168" t="n">
-        <v>7</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C169" t="n">
-        <v>7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>173</v>
-      </c>
-      <c r="C170" t="n">
-        <v>7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>174</v>
-      </c>
-      <c r="C171" t="n">
-        <v>7</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>175</v>
-      </c>
-      <c r="C172" t="n">
-        <v>7</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>176</v>
-      </c>
-      <c r="C173" t="n">
-        <v>7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" t="n">
-        <v>7</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>178</v>
-      </c>
-      <c r="C175" t="n">
-        <v>7</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>179</v>
-      </c>
-      <c r="C176" t="n">
-        <v>7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" t="n">
-        <v>7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>181</v>
-      </c>
-      <c r="C178" t="n">
-        <v>7</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>182</v>
-      </c>
-      <c r="C179" t="n">
-        <v>7</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>183</v>
-      </c>
-      <c r="C180" t="n">
-        <v>7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>184</v>
-      </c>
-      <c r="C181" t="n">
-        <v>7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>185</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>186</v>
-      </c>
-      <c r="C183" t="n">
-        <v>7</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>187</v>
-      </c>
-      <c r="C184" t="n">
-        <v>7</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>188</v>
-      </c>
-      <c r="C185" t="n">
-        <v>7</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" t="n">
-        <v>7</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187" t="n">
-        <v>7</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="n">
-        <v>27.57</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>191</v>
-      </c>
-      <c r="C188" t="n">
-        <v>6</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>192</v>
-      </c>
-      <c r="C189" t="n">
-        <v>6</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>193</v>
-      </c>
-      <c r="C190" t="n">
-        <v>6</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>194</v>
-      </c>
-      <c r="C191" t="n">
-        <v>6</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>195</v>
-      </c>
-      <c r="C192" t="n">
-        <v>6</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>196</v>
-      </c>
-      <c r="C193" t="n">
-        <v>6</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>197</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>198</v>
-      </c>
-      <c r="C195" t="n">
-        <v>6</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>199</v>
-      </c>
-      <c r="C196" t="n">
-        <v>6</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0</v>
-      </c>
-      <c r="E196" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>200</v>
-      </c>
-      <c r="C197" t="n">
-        <v>6</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>201</v>
-      </c>
-      <c r="C198" t="n">
-        <v>6</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>202</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>203</v>
-      </c>
-      <c r="C200" t="n">
-        <v>6</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>32.17</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>204</v>
-      </c>
-      <c r="C201" t="n">
-        <v>6</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
-        <v>32.17</v>
       </c>
     </row>
   </sheetData>

--- a/code/author_keywords_word_count.xlsx
+++ b/code/author_keywords_word_count.xlsx
@@ -41,15 +41,15 @@
     <t xml:space="preserve">adaptation</t>
   </si>
   <si>
+    <t xml:space="preserve">disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community resilience</t>
+  </si>
+  <si>
     <t xml:space="preserve">covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">disaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">community resilience</t>
-  </si>
-  <si>
     <t xml:space="preserve">adaptive capacity</t>
   </si>
   <si>
@@ -83,15 +83,15 @@
     <t xml:space="preserve">development</t>
   </si>
   <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">livelihood</t>
+  </si>
+  <si>
     <t xml:space="preserve">social-ecological system</t>
   </si>
   <si>
-    <t xml:space="preserve">livelihood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
     <t xml:space="preserve">risk</t>
   </si>
   <si>
@@ -116,217 +116,217 @@
     <t xml:space="preserve">inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">poverty</t>
+  </si>
+  <si>
     <t xml:space="preserve">fishery</t>
   </si>
   <si>
-    <t xml:space="preserve">poverty</t>
+    <t xml:space="preserve">urban planning</t>
   </si>
   <si>
     <t xml:space="preserve">flooding</t>
   </si>
   <si>
+    <t xml:space="preserve">disaster resilience</t>
+  </si>
+  <si>
     <t xml:space="preserve">social vulnerability</t>
   </si>
   <si>
-    <t xml:space="preserve">urban planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disaster resilience</t>
+    <t xml:space="preserve">agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tourism</t>
   </si>
   <si>
     <t xml:space="preserve">disaster management</t>
   </si>
   <si>
-    <t xml:space="preserve">agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourism</t>
-  </si>
-  <si>
     <t xml:space="preserve">transformation</t>
   </si>
   <si>
+    <t xml:space="preserve">covid-19 pandemic</t>
+  </si>
+  <si>
     <t xml:space="preserve">equity</t>
   </si>
   <si>
+    <t xml:space="preserve">hazards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanization</t>
+  </si>
+  <si>
     <t xml:space="preserve">indicators</t>
   </si>
   <si>
-    <t xml:space="preserve">urbanization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">power</t>
+    <t xml:space="preserve">place attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crisis</t>
   </si>
   <si>
     <t xml:space="preserve">food security</t>
   </si>
   <si>
-    <t xml:space="preserve">crisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">culture</t>
+    <t xml:space="preserve">identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geographic information system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">institutions</t>
   </si>
   <si>
     <t xml:space="preserve">risk perception</t>
   </si>
   <si>
+    <t xml:space="preserve">planning</t>
+  </si>
+  <si>
     <t xml:space="preserve">small-scale fisheries</t>
   </si>
   <si>
-    <t xml:space="preserve">geographic information system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institutions</t>
-  </si>
-  <si>
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
-    <t xml:space="preserve">identity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recovery</t>
-  </si>
-  <si>
     <t xml:space="preserve">education</t>
   </si>
   <si>
     <t xml:space="preserve">risk management</t>
   </si>
   <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">participation</t>
+  </si>
+  <si>
     <t xml:space="preserve">politics</t>
   </si>
   <si>
-    <t xml:space="preserve">participation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
+    <t xml:space="preserve">community development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disaster recovery</t>
   </si>
   <si>
     <t xml:space="preserve">urban</t>
   </si>
   <si>
-    <t xml:space="preserve">community development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disaster recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncertainty</t>
-  </si>
-  <si>
     <t xml:space="preserve">policy</t>
   </si>
   <si>
     <t xml:space="preserve">urban governance</t>
   </si>
   <si>
+    <t xml:space="preserve">mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiculturalism</t>
+  </si>
+  <si>
     <t xml:space="preserve">disaster risk management</t>
   </si>
   <si>
-    <t xml:space="preserve">mitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiculturalism</t>
-  </si>
-  <si>
     <t xml:space="preserve">livelihood resilience</t>
   </si>
   <si>
+    <t xml:space="preserve">refugees</t>
+  </si>
+  <si>
     <t xml:space="preserve">scale</t>
   </si>
   <si>
-    <t xml:space="preserve">refugees</t>
-  </si>
-  <si>
     <t xml:space="preserve">social work</t>
   </si>
   <si>
+    <t xml:space="preserve">resilience assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fisheries management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terrorism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urban agriculture</t>
+  </si>
+  <si>
     <t xml:space="preserve">marine protected areas</t>
   </si>
   <si>
-    <t xml:space="preserve">urban agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resilience assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">africa</t>
+    <t xml:space="preserve">youth</t>
   </si>
   <si>
     <t xml:space="preserve">conservation</t>
   </si>
   <si>
-    <t xml:space="preserve">fisheries management</t>
+    <t xml:space="preserve">drought</t>
   </si>
   <si>
     <t xml:space="preserve">ecosystem services</t>
   </si>
   <si>
-    <t xml:space="preserve">exposure</t>
+    <t xml:space="preserve">mobility</t>
   </si>
   <si>
     <t xml:space="preserve">rural area</t>
   </si>
   <si>
-    <t xml:space="preserve">terrorism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">youth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobility</t>
+    <t xml:space="preserve">environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">environmental change</t>
   </si>
   <si>
     <t xml:space="preserve">twitter</t>
   </si>
   <si>
+    <t xml:space="preserve">qualitative analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economic crisis</t>
+  </si>
+  <si>
     <t xml:space="preserve">discourse</t>
   </si>
   <si>
+    <t xml:space="preserve">welfare state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsunami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emergency management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co-management</t>
+  </si>
+  <si>
     <t xml:space="preserve">vulnerability assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatial analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emergency management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latin america</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environmental change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welfare state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualitative analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsunami</t>
   </si>
 </sst>
 </file>
@@ -751,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
         <v>0.03</v>
       </c>
       <c r="E6" t="n">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="7">
@@ -768,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
         <v>0.03</v>
       </c>
       <c r="E7" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="8">
@@ -785,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
         <v>0.03</v>
       </c>
       <c r="E8" t="n">
-        <v>2.33</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="9">
@@ -1363,13 +1363,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
         <v>0.01</v>
       </c>
       <c r="E42" t="n">
-        <v>10.72</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="43">
@@ -1431,13 +1431,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="n">
         <v>0.01</v>
       </c>
       <c r="E46" t="n">
-        <v>11.35</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="47">
@@ -1499,13 +1499,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
         <v>0.01</v>
       </c>
       <c r="E50" t="n">
-        <v>12.06</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="51">
@@ -1635,13 +1635,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
         <v>0.01</v>
       </c>
       <c r="E58" t="n">
-        <v>12.87</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1669,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
         <v>0.01</v>
       </c>
       <c r="E60" t="n">
-        <v>13.79</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="61">
@@ -1737,13 +1737,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E64" t="n">
-        <v>14.85</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="65">
@@ -1822,13 +1822,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>16.08</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="70">
@@ -1907,13 +1907,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>17.55</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="75">
